--- a/docs/scrum/burndown-charts.xlsx
+++ b/docs/scrum/burndown-charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dyl2e\USU\SoftwareEngineering\dans-frappy-shop\docs\scrum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21986B20-BE38-420E-8B97-7F2E35F82620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D3E202-458E-45DD-ACD9-E01A0F210C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Milestone 1" sheetId="2" r:id="rId1"/>
@@ -2469,34 +2469,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2596,31 +2596,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,34 +2743,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2870,31 +2870,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.400000000000002</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.6</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.8</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.399999999999999</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5999999999999988</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7999999999999989</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3507,34 +3507,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8</c:v>
+                  <c:v>3.4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3634,7 +3634,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -3781,34 +3781,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>38</c:v>
+                  <c:v>34</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>38</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3908,34 +3908,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.400000000000002</c:v>
+                  <c:v>27.200000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>26.6</c:v>
+                  <c:v>23.800000000000004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22.8</c:v>
+                  <c:v>20.400000000000006</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>19</c:v>
+                  <c:v>17.000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15.2</c:v>
+                  <c:v>13.600000000000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.399999999999999</c:v>
+                  <c:v>10.200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5999999999999988</c:v>
+                  <c:v>6.800000000000006</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.7999999999999989</c:v>
+                  <c:v>3.4000000000000061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>6.2172489379008766E-15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9726,8 +9726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FADAD0-F9C5-4871-A06F-82DE14E4E5FD}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9793,16 +9793,16 @@
       </c>
       <c r="B2" s="5">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F2" s="5">
         <v>0</v>
@@ -9814,20 +9814,20 @@
         <v>0</v>
       </c>
       <c r="I2" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" s="10">
         <f>B2-(SUM(C2:L2))</f>
-        <v>9.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -9836,16 +9836,16 @@
       </c>
       <c r="B3" s="7">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
@@ -9854,13 +9854,13 @@
         <v>0</v>
       </c>
       <c r="H3" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K3" s="7">
         <v>0</v>
@@ -9870,7 +9870,7 @@
       </c>
       <c r="M3" s="11">
         <f>B3-(SUM(C3:L3))</f>
-        <v>9.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -9879,41 +9879,41 @@
       </c>
       <c r="B4" s="5">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
       <c r="F4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="K4" s="5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="5">
         <v>0</v>
       </c>
       <c r="M4" s="10">
         <f>B4-(SUM(C4:L4))</f>
-        <v>9.5</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -9922,16 +9922,16 @@
       </c>
       <c r="B5" s="7">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -9940,13 +9940,13 @@
         <v>0</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
       </c>
       <c r="J5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="K5" s="7">
         <v>0</v>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="M5" s="11">
         <f>B5-(SUM(C5:L5))</f>
-        <v>9.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -10014,43 +10014,43 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5">
         <f t="shared" ref="C9:L9" si="1">SUM($B$2:$B$5)/10</f>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -10064,39 +10064,39 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:K10" si="2">SUM(D2:D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I10" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10" s="8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L10" s="8">
         <f>SUM(L2:L5)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -10105,47 +10105,47 @@
       </c>
       <c r="B11" s="5">
         <f>B14</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C11" s="5">
         <f>B11-C10</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ref="D11:I11" si="3">C11-D10</f>
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>38</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -10154,43 +10154,43 @@
       </c>
       <c r="B12" s="5">
         <f>B14</f>
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C12" s="1">
         <f>B12-C9</f>
-        <v>34.200000000000003</v>
+        <v>27</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ref="D12:I12" si="4">C12-D9</f>
-        <v>30.400000000000002</v>
+        <v>24</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="4"/>
-        <v>26.6</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>22.8</v>
+        <v>18</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="4"/>
-        <v>15.2</v>
+        <v>12</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>11.399999999999999</v>
+        <v>9</v>
       </c>
       <c r="J12" s="1">
         <f>I12-J9</f>
-        <v>7.5999999999999988</v>
+        <v>6</v>
       </c>
       <c r="K12" s="1">
         <f>J12-K9</f>
-        <v>3.7999999999999989</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
         <f>K12-L9</f>
@@ -10202,7 +10202,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -10216,8 +10216,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DEB9ECB-E51C-4BE8-90E7-4F5475BC515A}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q34" sqref="Q34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="102" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10283,13 +10283,13 @@
       </c>
       <c r="B2" s="5">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
       <c r="D2" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -10317,7 +10317,7 @@
       </c>
       <c r="M2" s="10">
         <f>B2-(SUM(C2:L2))</f>
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -10326,13 +10326,13 @@
       </c>
       <c r="B3" s="7">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C3" s="7">
         <v>0</v>
       </c>
       <c r="D3" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E3" s="7">
         <v>0</v>
@@ -10360,7 +10360,7 @@
       </c>
       <c r="M3" s="11">
         <f>B3-(SUM(C3:L3))</f>
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -10369,13 +10369,13 @@
       </c>
       <c r="B4" s="5">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
       <c r="D4" s="5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -10403,7 +10403,7 @@
       </c>
       <c r="M4" s="10">
         <f>B4-(SUM(C4:L4))</f>
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -10412,13 +10412,13 @@
       </c>
       <c r="B5" s="7">
         <f>B14/4</f>
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E5" s="7">
         <v>0</v>
@@ -10446,7 +10446,7 @@
       </c>
       <c r="M5" s="11">
         <f>B5-(SUM(C5:L5))</f>
-        <v>9.5</v>
+        <v>8.25</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -10504,43 +10504,43 @@
       <c r="B9" s="5"/>
       <c r="C9" s="5">
         <f t="shared" ref="C9:L9" si="1">SUM($B$2:$B$5)/10</f>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="G9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="L9" s="5">
         <f t="shared" si="1"/>
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -10554,7 +10554,7 @@
       </c>
       <c r="D10" s="7">
         <f t="shared" ref="D10:K10" si="2">SUM(D2:D5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="7">
         <f t="shared" si="2"/>
@@ -10595,47 +10595,47 @@
       </c>
       <c r="B11" s="5">
         <f>B14</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C11" s="5">
         <f>B11-C10</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ref="D11:I11" si="3">C11-D10</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="J11" s="5">
         <f>I11-J10</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K11" s="5">
         <f>J11-K10</f>
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="L11" s="5">
         <f>K11-L10</f>
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
@@ -10644,47 +10644,47 @@
       </c>
       <c r="B12" s="5">
         <f>B14</f>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" s="1">
         <f>B12-C9</f>
-        <v>34.200000000000003</v>
+        <v>30.6</v>
       </c>
       <c r="D12" s="1">
         <f t="shared" ref="D12:I12" si="4">C12-D9</f>
-        <v>30.400000000000002</v>
+        <v>27.200000000000003</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" si="4"/>
-        <v>26.6</v>
+        <v>23.800000000000004</v>
       </c>
       <c r="F12" s="1">
         <f t="shared" si="4"/>
-        <v>22.8</v>
+        <v>20.400000000000006</v>
       </c>
       <c r="G12" s="1">
         <f t="shared" si="4"/>
-        <v>19</v>
+        <v>17.000000000000007</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" si="4"/>
-        <v>15.2</v>
+        <v>13.600000000000007</v>
       </c>
       <c r="I12" s="1">
         <f t="shared" si="4"/>
-        <v>11.399999999999999</v>
+        <v>10.200000000000006</v>
       </c>
       <c r="J12" s="1">
         <f>I12-J9</f>
-        <v>7.5999999999999988</v>
+        <v>6.800000000000006</v>
       </c>
       <c r="K12" s="1">
         <f>J12-K9</f>
-        <v>3.7999999999999989</v>
+        <v>3.4000000000000061</v>
       </c>
       <c r="L12" s="1">
         <f>K12-L9</f>
-        <v>0</v>
+        <v>6.2172489379008766E-15</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
@@ -10692,7 +10692,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -10706,7 +10706,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D049C3-E1A4-42A2-B284-57036EF83DFB}">
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
